--- a/Datasets/NCES/Finance/Data Dictionary/Finance_Varlist.xlsx
+++ b/Datasets/NCES/Finance/Data Dictionary/Finance_Varlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kdavis/Desktop/QMSSClasses/QMSSMAThesis/Datasets/NCES/Finance/Data Dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4611093-9E7B-B94E-BD29-0203C14570E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7262810-8B83-CD45-9CDE-66305D727A6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1720" windowWidth="17660" windowHeight="16280" activeTab="3" xr2:uid="{96CB7534-0605-0940-A054-2EAF9C4D72AA}"/>
+    <workbookView xWindow="11140" yWindow="1340" windowWidth="17660" windowHeight="16280" activeTab="3" xr2:uid="{96CB7534-0605-0940-A054-2EAF9C4D72AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Finance Var List" sheetId="1" r:id="rId1"/>
@@ -5269,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8312D7-93D7-094E-AFBE-051C5647A7BD}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
